--- a/Lab2 - X-ray Apparatus/1 - Investigating the energy spectrum/ExperimentNotes.xlsx
+++ b/Lab2 - X-ray Apparatus/1 - Investigating the energy spectrum/ExperimentNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/t905k768_home_ku_edu/Documents/PHSX 616/GitHub/PHSX616/Lab2 - X-ray Apparatus/1 - Investigating the energy spectrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{7B9EE9B5-CEA6-4F66-ACBB-257C239B2F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB77C8C0-D695-426F-AB03-55429591481A}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{7B9EE9B5-CEA6-4F66-ACBB-257C239B2F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2E792D-34AE-45A4-9BCF-E27647D9D4DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6E930E8-92CA-4361-8976-21ACABB5A18B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Investigating the energy spectrum of an x-ray tube as a function of the high voltage and the emission current</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>I don’t think this trial finished? Ill do it again. Toss this data.</t>
+  </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
+  </si>
+  <si>
+    <t>no problems today!</t>
   </si>
 </sst>
 </file>
@@ -207,6 +216,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489CD3D-D741-4FB4-9D21-B79C5A215017}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +530,7 @@
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,49 +603,37 @@
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45197</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -641,15 +642,15 @@
         <v>45197</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -658,15 +659,15 @@
         <v>45197</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -678,12 +679,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -695,12 +696,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -709,66 +710,190 @@
         <v>45197</v>
       </c>
       <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45202</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45202</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45202</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45202</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B22">
+      <c r="B31">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B32" s="3">
         <v>0.4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D32" s="2">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B33" s="3">
         <v>0.6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B34" s="3">
         <v>0.8</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C35" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Lab2 - X-ray Apparatus/1 - Investigating the energy spectrum/ExperimentNotes.xlsx
+++ b/Lab2 - X-ray Apparatus/1 - Investigating the energy spectrum/ExperimentNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/t905k768_home_ku_edu/Documents/PHSX 616/GitHub/PHSX616/Lab2 - X-ray Apparatus/1 - Investigating the energy spectrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{7B9EE9B5-CEA6-4F66-ACBB-257C239B2F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2E792D-34AE-45A4-9BCF-E27647D9D4DA}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{7B9EE9B5-CEA6-4F66-ACBB-257C239B2F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65FDCA1A-8380-484E-B264-A023E05534CF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6E930E8-92CA-4361-8976-21ACABB5A18B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>Investigating the energy spectrum of an x-ray tube as a function of the high voltage and the emission current</t>
   </si>
@@ -216,10 +216,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489CD3D-D741-4FB4-9D21-B79C5A215017}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,61 +836,171 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
+      <c r="A31" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <v>0.4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.6</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2">
+        <v>45209</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2">
+        <v>45209</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45209</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45209</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
